--- a/q22/Q22填表答案_向量结果_1.0.xlsx
+++ b/q22/Q22填表答案_向量结果_1.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,108 +448,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub002</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-79.4804, 10.243, 4.5351, 13.2014, 27.0573]</t>
+          <t>[-79.4804, -71.6469, -41.2703, -6.6205, -0.9371]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub011</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[8.1015, 3.583, -17.2395, 13.2066]</t>
+          <t>[8.1015, 12.8555, 13.2014]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub042</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.4259, 12.2909, -1.5253]</t>
+          <t>[0.4259, -1.6671, 13.2066, -0.625]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[5.9425, 7.2305, 2.4531]</t>
+          <t>[5.9425, 10.5661, 24.3238, 15.7722, -0.0275, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[9.5248, -71.6469, 15.6213, 24.3238, -8.737, -6.7655, -6.6205]</t>
+          <t>[9.5248, 13.9478, 29.8153]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub070</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[5.392, 12.8555, -0.3097]</t>
+          <t>[5.392, 4.5351, 5.621]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-14.4551, -1.6671, 14.6711, 29.8153]</t>
+          <t>[-14.4551, -17.2395, 15.4691, -25.0026, -39.5461, -0.487]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[2.9849, 10.5661, 9.6764, 5.621, 37.9131, 23.7608]</t>
+          <t>[2.9849, -1.5253, 27.0573]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-4.063, 13.9478, -41.2703, 15.4691, -43.7407]</t>
+          <t>[-4.063, 2.4531, -8.737, 6.713, -11.202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub086</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[10.243, 15.6213, 37.9131, 7.9005]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub089</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[3.583, -0.3097, -43.7407, -21.7073]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub092</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[12.2909, 14.6711, -6.7655, -8.1819]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub096</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[7.2305, 9.6764, 23.7608, 19.744, 2.2034, 0.0135]</t>
         </is>
       </c>
     </row>

--- a/q22/Q22填表答案_向量结果_1.0.xlsx
+++ b/q22/Q22填表答案_向量结果_1.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,156 +448,708 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-79.4804, -71.6469, -41.2703, -6.6205, -0.9371]</t>
+          <t>[-24.808, -33.3708, -48.0588, -65.5205, -77.7787]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub011</t>
+          <t>sub003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[8.1015, 12.8555, 13.2014]</t>
+          <t>[-8.5459, -16.674, -22.9482]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub042</t>
+          <t>sub016</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.4259, -1.6671, 13.2066, -0.625]</t>
+          <t>[-4.9518, -11.3726, -61.3031]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub064</t>
+          <t>sub021</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[5.9425, 10.5661, 24.3238, 15.7722, -0.0275, 0.0]</t>
+          <t>[11.1512, 7.0371, 12.2459, 25.5236]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub067</t>
+          <t>sub025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[9.5248, 13.9478, 29.8153]</t>
+          <t>[15.3625, 8.2859, 1.3682]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub070</t>
+          <t>sub026</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[5.392, 4.5351, 5.621]</t>
+          <t>[2.9082, 5.6799, -14.6454, -8.1074]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub071</t>
+          <t>sub027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-14.4551, -17.2395, 15.4691, -25.0026, -39.5461, -0.487]</t>
+          <t>[16.861, -14.8317, 13.1159, 23.3091]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub072</t>
+          <t>sub028</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[2.9849, -1.5253, 27.0573]</t>
+          <t>[7.5071, -1.7001, -10.9668, -34.1861, 3.3228]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub075</t>
+          <t>sub029</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-4.063, 2.4531, -8.737, 6.713, -11.202]</t>
+          <t>[-20.3992, -35.4636, 2.8352, 10.4053]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub086</t>
+          <t>sub031</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[10.243, 15.6213, 37.9131, 7.9005]</t>
+          <t>[6.6282, -11.4148, -19.5967]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub089</t>
+          <t>sub032</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[3.583, -0.3097, -43.7407, -21.7073]</t>
+          <t>[23.2931, 20.1887, 36.113]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub092</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[12.2909, 14.6711, -6.7655, -8.1819]</t>
+          <t>[22.8633, 19.4657, 6.3723, 12.6049, 46.623, 32.5482]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sub096</t>
+          <t>sub034</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[7.2305, 9.6764, 23.7608, 19.744, 2.2034, 0.0135]</t>
+          <t>[13.0092, -9.1235, -48.4073, -30.6588]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub036</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[7.44, -8.3042, 25.411, 13.6224, 28.3353]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub037</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[4.1141, -15.0343, -30.6578, -3.0311, 8.1048]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub038</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[19.6172, 14.3643, 3.3055, 10.9515, 20.1519]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub039</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[7.9361, -1.9605, -18.7098, -29.0503, -83.8486, -66.5197, 14.7029]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub040</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[19.6022, 8.5426, -6.2024, -1.0554, -50.8785, -6.4642]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub041</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[18.8342, 18.2779, 13.333, 45.2657]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub043</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[3.6491, -2.4167, 4.8721, 15.7006]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub044</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[-1.7767, -13.4339, -30.8021, -43.1191, -9.3715, -0.057]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub045</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[17.5951, 15.4878, 5.1338, 13.5676]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub046</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[-13.6598, -15.8331, 8.6508]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub047</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[18.2271, 16.2898, 12.8463, 23.742]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub048</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[19.5302, -5.892, -14.7469, -29.1225]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub049</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[20.6975, 21.8375, 30.2507, 42.4993]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub050</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[15.8023, 14.9984, 23.9781]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub051</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[7.4901, -0.7607, 34.5568, 42.1827, 7.9046]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub052</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[17.1831, -17.7584, -36.0567, -23.7705, 0.2662, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub053</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[7.3111, 3.5608, -9.5, 27.2848]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sub054</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[11.3752, 9.0715, 13.072, 22.2641]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sub055</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[8.5862, -11.053, -12.9484]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sub056</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[-5.6619, -7.8777, -8.2323, -0.3917, 9.3675, 8.9908, 37.7535, 43.2929, 49.0915]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>sub057</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[15.9053, 16.5355, 35.4503]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sub058</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[13.1735, 6.6119, 11.4063]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sub060</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[-9.6368, -19.247, -13.1176, -8.8408, -4.4006, -6.5761, 8.0061, 22.0871, 27.7395]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sub061</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[8.8032, 3.3204, -28.1062, -40.5819, -51.3292, -67.193]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sub062</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[13.95, 12.2122, 15.2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>sub063</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[17.0275, 16.8137, 7.1361, -19.4823, -18.9861, -0.5073, -94.0399, -24.4196]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sub065</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[-20.9989, -13.2612, -14.3689, -1.3161]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sub066</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[4.1988, -14.8479, -6.595, 7.6034, 29.7294]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sub068</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[9.3941, 3.3447, -16.0168, -7.5936, -7.0056, 0.0119, -0.451, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sub073</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[20.1011, 19.1247, 27.5897]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sub074</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[-5.2789, -16.7459, -29.2358, -46.3105, -58.3401, -23.649]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sub076</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[13.8851, 12.9837, 17.0396, 24.1851, 40.7204]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sub077</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[15.0721, -6.6666, 4.7913, -9.1536, 7.9034]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sub080</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[12.1321, 11.6505, 37.4077]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sub082</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[-9.8338, -2.6797, 7.4169]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sub083</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[1.3265, -12.9768, -14.2681]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sub084</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[20.8231, 13.5312, 5.4377, 0.1463, -2.1648]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sub085</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[-29.6238, -22.8988, -33.298, -20.5869, 20.3678, 30.4925]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sub087</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[23.6411, 23.3521, 39.3865, 44.4828, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sub090</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[-5.5389, -51.4393, 19.2048, 35.6795]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sub094</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[16.6241, 10.368, 13.2128, 33.8148, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sub095</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[10.8052, -58.3813, -68.2538, -123.1476, -76.8533]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sub097</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[13.92, 17.6185, 35.2037]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sub098</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[-15.757, -1.9546, 11.2275, 7.3726, 10.9557]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sub099</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[14.494, 5.693, -3.8974]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sub100</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[16.6002, 20.427, 35.1175]</t>
         </is>
       </c>
     </row>
